--- a/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Toal Spent</t>
+    <t xml:space="preserve">Total Spent</t>
   </si>
   <si>
     <t xml:space="preserve">Balance</t>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,12 +141,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +208,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,10 +217,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,8 +303,8 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,92 +325,92 @@
       <c r="A1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Budget Construction Report</t>
   </si>
@@ -40,15 +40,6 @@
     <t xml:space="preserve">Org</t>
   </si>
   <si>
-    <t xml:space="preserve">Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project C Code</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">Phase Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Budget Plan</t>
@@ -301,24 +289,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="9" style="2" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="2" width="15.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="35.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="2" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="2" width="15.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="18" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,18 +389,10 @@
       <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Budget Construction Report</t>
   </si>
@@ -40,6 +40,15 @@
     <t xml:space="preserve">Org</t>
   </si>
   <si>
+    <t xml:space="preserve">Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project C Code</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Phase Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Budget Plan</t>
@@ -289,24 +301,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="A8:I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="35.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="2" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="2" width="15.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="18" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="9" style="2" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="2" width="15.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,10 +401,18 @@
       <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AMG8" s="0"/>
-      <c r="AMH8" s="0"/>
-      <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
+      <c r="R8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
@@ -303,8 +303,8 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Budget Construction Report</t>
   </si>
@@ -28,6 +28,27 @@
     <t xml:space="preserve">Report Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Charge Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget Method</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project-C</t>
   </si>
   <si>
@@ -35,12 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division</t>
   </si>
   <si>
     <t xml:space="preserve">Section Code</t>
@@ -301,10 +316,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,80 +355,116 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="6" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="s">
+    </row>
+    <row r="15" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
+      <c r="Q15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
+++ b/pabi_budget_drilldown_report/xlsx_template/budget_invest_construction_report.xlsx
@@ -319,7 +319,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
